--- a/Sales Data.xlsx
+++ b/Sales Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final project24\Customer Segmentation for E-commerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final project24\RFM-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBBE6E-35B7-450B-B875-AF780D13EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AD9B2-4063-4BD5-A73E-CF84EB944031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14089,7 +14089,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -14106,9 +14106,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="13" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14199,14 +14196,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -14234,116 +14233,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -14399,9 +14288,63 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -14457,9 +14400,63 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -14586,12 +14583,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{BF1B55CD-3626-4EBC-AF11-DA757E48DF5E}" name="Order ID" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2B89A351-B5FC-4EA1-86B5-8BBC7BA72DFF}" name="Order Date" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{34B9CAA7-2895-4090-A8D6-02D7DF3C1F9B}" name="Customer ID" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A32F5C1E-6F24-460A-8CAF-70F03D38F501}" name="Customer Name" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{A1CD63DF-A19F-4123-AFEE-1160DC6817E0}" name="Product ID" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{088D54EE-2B74-4641-9598-811C663957AD}" name="Sales" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BF1B55CD-3626-4EBC-AF11-DA757E48DF5E}" name="Order ID" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2B89A351-B5FC-4EA1-86B5-8BBC7BA72DFF}" name="Order Date" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{34B9CAA7-2895-4090-A8D6-02D7DF3C1F9B}" name="Customer ID" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A32F5C1E-6F24-460A-8CAF-70F03D38F501}" name="Customer Name" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{A1CD63DF-A19F-4123-AFEE-1160DC6817E0}" name="Product ID" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{088D54EE-2B74-4641-9598-811C663957AD}" name="Sales" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -78945,12 +78942,12 @@
       <c r="F3210" s="6"/>
     </row>
     <row r="3211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3211" s="16"/>
-      <c r="B3211" s="17"/>
-      <c r="C3211" s="16"/>
-      <c r="D3211" s="16"/>
-      <c r="E3211" s="16"/>
-      <c r="F3211" s="18"/>
+      <c r="A3211" s="12"/>
+      <c r="B3211" s="3"/>
+      <c r="C3211" s="12"/>
+      <c r="D3211" s="12"/>
+      <c r="E3211" s="12"/>
+      <c r="F3211" s="7"/>
     </row>
     <row r="3216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3216" s="10" t="s">
